--- a/settings/transaction_logs.xlsx
+++ b/settings/transaction_logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.ton\IdeaProjects\VSE_PipeCleaner\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C0C9C-9CE2-4721-B799-3F03F6DA6985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B64F13-FBF5-4B69-83C7-11768A98B1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{3536E962-DE56-4DD7-86BA-199137B2C2D0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="353">
   <si>
     <t>Date</t>
   </si>
@@ -523,24 +523,6 @@
     <t>M391A2K43BB1-CTD</t>
   </si>
   <si>
-    <t>M393A2K40CB2-CVF (2015/2016)</t>
-  </si>
-  <si>
-    <t>M393A4K40CB2-CTD (1902/1903)</t>
-  </si>
-  <si>
-    <t>M393A4K40CB2-CTD (1940-1950)</t>
-  </si>
-  <si>
-    <t>M393A4K40CB2-CVF (2015/2016)</t>
-  </si>
-  <si>
-    <t>M393A2K40DB2-CVF (2035)</t>
-  </si>
-  <si>
-    <t>M393A4K40DB2-CVF (2001)</t>
-  </si>
-  <si>
     <t>M393A2K40DB3-CWE</t>
   </si>
   <si>
@@ -577,9 +559,6 @@
     <t>HMAA8GR7CJR4N-XN</t>
   </si>
   <si>
-    <t>HMAA8GR7AJR4N-XN (T8, T4, TG)</t>
-  </si>
-  <si>
     <t>HMA84GR7CJR4N-XN</t>
   </si>
   <si>
@@ -589,21 +568,12 @@
     <t>HMA82GR7DJR4N-WM</t>
   </si>
   <si>
-    <t>HMA82GR7DJR4N-XN (T4, T8, TG)</t>
-  </si>
-  <si>
     <t>HMA84GR7DJR4N-XNT</t>
   </si>
   <si>
-    <t>HMA82GR7JJR4N-VK</t>
-  </si>
-  <si>
     <t>HMA84GR7MFR4N-UH</t>
   </si>
   <si>
-    <t>NT16GA72D4PBX3P-HR (old)</t>
-  </si>
-  <si>
     <t>NT16GA72D4PBX3P-IX</t>
   </si>
   <si>
@@ -727,9 +697,6 @@
     <t>HDEPX20SMA51F</t>
   </si>
   <si>
-    <t xml:space="preserve">AD2-KW960 </t>
-  </si>
-  <si>
     <t>AD2-KW960</t>
   </si>
   <si>
@@ -754,12 +721,6 @@
     <t>SSDPELKX020T8D-201</t>
   </si>
   <si>
-    <t>SSDPELKX019T8DM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSDPELKX019T8M2 </t>
-  </si>
-  <si>
     <t>SSDPELKX038T8D</t>
   </si>
   <si>
@@ -775,9 +736,6 @@
     <t>HFS1T9GD0FEH-6410A BA</t>
   </si>
   <si>
-    <t>HFS960GD0FEG-A430A (Purple dot; common PSID)</t>
-  </si>
-  <si>
     <t>HFS1T9GD0FEH-A430A</t>
   </si>
   <si>
@@ -799,9 +757,6 @@
     <t>MZ1LB1T9HALS-00AMV</t>
   </si>
   <si>
-    <t>-00AMV</t>
-  </si>
-  <si>
     <t>MZ1L2960HCJR-00AMV</t>
   </si>
   <si>
@@ -862,18 +817,6 @@
     <t>DIMM</t>
   </si>
   <si>
-    <t>HDD</t>
-  </si>
-  <si>
-    <t>M.2</t>
-  </si>
-  <si>
-    <t>RULER</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -889,14 +832,275 @@
     <t>Toshiba/Kioxia</t>
   </si>
   <si>
-    <t>SSDPELKX010T801</t>
+    <t xml:space="preserve">Cage </t>
+  </si>
+  <si>
+    <t>Serial: EM2042004E.830B0M2018000D0BB1 Given to Matt for Steph. Removed form inventory</t>
+  </si>
+  <si>
+    <t>MZ1L21T9HCLS-00AMV  </t>
+  </si>
+  <si>
+    <t>Serial: NI03T0006I1203I0E</t>
+  </si>
+  <si>
+    <t>HFS1T9GD0FEI-A430A</t>
+  </si>
+  <si>
+    <t>Serial: S5XLNE0N900100</t>
+  </si>
+  <si>
+    <t>HDEPZA0SMB51F</t>
+  </si>
+  <si>
+    <t>S/O: 80018933</t>
+  </si>
+  <si>
+    <t>Pipe 736-B STO</t>
+  </si>
+  <si>
+    <t>(Pipe 750) Reconfig with Micron 32GB 3200 &amp; 16GB 3200 and QCL parts [TRR 40984</t>
+  </si>
+  <si>
+    <t>HMA82GR7DJR4N-XN</t>
+  </si>
+  <si>
+    <t>SSDPELKX019T8D </t>
+  </si>
+  <si>
+    <t>(Pipe 619) Reconfig with Intel P4511 4TB and QCL parts [TRR 512319]</t>
+  </si>
+  <si>
+    <t>SSDPELKX038T8M2 </t>
+  </si>
+  <si>
+    <t>(Pipe 638) Reconfig with Seagate 6TB HDD and QCL parts [TRR 559179]</t>
+  </si>
+  <si>
+    <t>HFS1T9GD0FEH</t>
+  </si>
+  <si>
+    <t>VSE0G7IWCPT-813 Pull DIMM and send to Nanya</t>
+  </si>
+  <si>
+    <t>JBOF/F2010</t>
+  </si>
+  <si>
+    <t>SSDPEXNV153T8D </t>
+  </si>
+  <si>
+    <t>[SIP Server] [Intel][JBOF/F2010]  TRR 565059</t>
+  </si>
+  <si>
+    <t>Invoice - 1000-2021-00020293</t>
+  </si>
+  <si>
+    <t>Invoice - 1000-2021-00012718</t>
+  </si>
+  <si>
+    <t>FROM 534</t>
+  </si>
+  <si>
+    <t>Pipe 534</t>
+  </si>
+  <si>
+    <t>mini lab</t>
+  </si>
+  <si>
+    <t>Hynix mini lab</t>
+  </si>
+  <si>
+    <t>HMA84GR7DJR4N-XN</t>
+  </si>
+  <si>
+    <t>Pipe - 8100 Need help in configuring a blade.</t>
+  </si>
+  <si>
+    <t>MTA18ASF4G72PZ-3G2E</t>
+  </si>
+  <si>
+    <t>Pipe 749) Reconfig with Micron Z32D 64GB and QCL parts [TRR 518223]</t>
+  </si>
+  <si>
+    <t>Serial# 83CE32CC on will call for Si Truong (MFST)</t>
+  </si>
+  <si>
+    <t>M393A2K40CB2-CVF</t>
+  </si>
+  <si>
+    <t>M393A4K40CB2-CVF</t>
+  </si>
+  <si>
+    <t>M393A2K40DB2-CVF</t>
+  </si>
+  <si>
+    <t>HMAA8GR7AJR4N-XN</t>
+  </si>
+  <si>
+    <t>82GR7JJR4N-VK</t>
+  </si>
+  <si>
+    <t>NT16GA72D4PBX3P-HR</t>
+  </si>
+  <si>
+    <t>DISK</t>
+  </si>
+  <si>
+    <t>NVME</t>
+  </si>
+  <si>
+    <t>SSDPELKX019T8D</t>
+  </si>
+  <si>
+    <t>SSDPELKX960G8M2</t>
+  </si>
+  <si>
+    <t>SSDPELKX019T8M2</t>
+  </si>
+  <si>
+    <t>M393A4K40CB1-CRC</t>
+  </si>
+  <si>
+    <t>M393A4K40CB2-CTD 1902</t>
+  </si>
+  <si>
+    <t>M393A4K40DB2-CVF 2001</t>
+  </si>
+  <si>
+    <t>2K2101-402</t>
+  </si>
+  <si>
+    <t>M393A4K40DB2-CVF 2023</t>
+  </si>
+  <si>
+    <t>1TT101-536</t>
+  </si>
+  <si>
+    <t>MTA18ASF2G72PDZ-2G3B1</t>
+  </si>
+  <si>
+    <t>NVME RULER</t>
+  </si>
+  <si>
+    <t>SSDPEXNV153T8D</t>
+  </si>
+  <si>
+    <t>MTA36ASF4G72PZ-2G3B1</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
+  <si>
+    <t>X900563-001</t>
+  </si>
+  <si>
+    <t>01DE009</t>
+  </si>
+  <si>
+    <t>HMA82GR7CJR8N-VK</t>
+  </si>
+  <si>
+    <t>HMA84GR7CJ4N-VK</t>
+  </si>
+  <si>
+    <t>M393A2K40CB2-CTD7Q</t>
+  </si>
+  <si>
+    <t>M393A4K40CB2-CTD7Y</t>
+  </si>
+  <si>
+    <t>M393A4K40DB2-CVFBQ</t>
+  </si>
+  <si>
+    <t>M39A4K40CB2-CTD7Q</t>
+  </si>
+  <si>
+    <t>MTA36ASF2G72PZ-2G6E1R1</t>
+  </si>
+  <si>
+    <t>MTA36ASF4G72PZ-2G6E1SG</t>
+  </si>
+  <si>
+    <t>DAT6MTHUEB0</t>
+  </si>
+  <si>
+    <t>M1037380-005</t>
+  </si>
+  <si>
+    <t>M1037380-006</t>
+  </si>
+  <si>
+    <t>FPGA 40</t>
+  </si>
+  <si>
+    <t>081014 X930613- 001</t>
+  </si>
+  <si>
+    <t>0F27479</t>
+  </si>
+  <si>
+    <t>1TT101-002</t>
+  </si>
+  <si>
+    <t>2HZ100-401</t>
+  </si>
+  <si>
+    <t>2K2101-401</t>
+  </si>
+  <si>
+    <t>WDH0401-MB009-DF</t>
+  </si>
+  <si>
+    <t>EXP-KW960-PLP</t>
+  </si>
+  <si>
+    <t>HFS3T8GDOFEH-A430A</t>
+  </si>
+  <si>
+    <t>HFS960GD0FEG</t>
+  </si>
+  <si>
+    <t>HFS960GD0FEI</t>
+  </si>
+  <si>
+    <t>HFS960GD0TEG</t>
+  </si>
+  <si>
+    <t>M1041832-001</t>
+  </si>
+  <si>
+    <t>M1093809-001</t>
+  </si>
+  <si>
+    <t>M1113049-001</t>
+  </si>
+  <si>
+    <t>MZ1LB960HAJQ-000MU</t>
+  </si>
+  <si>
+    <t>MZ1LV960HMJP-000MU</t>
+  </si>
+  <si>
+    <t>MZ1LW960HMJP-000D5</t>
+  </si>
+  <si>
+    <t>MZ1WV480HCGL-000MV</t>
+  </si>
+  <si>
+    <t>HFS960G32MED-3401A</t>
+  </si>
+  <si>
+    <t>MZ7LM960HAJR-000MV</t>
+  </si>
+  <si>
+    <t>PM883</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,13 +1124,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF323130"/>
       <name val="Calibri"/>
@@ -935,20 +1132,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF003C71"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -980,11 +1183,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1000,41 +1218,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1344,23 +1578,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C236FA91-6483-42A6-91D4-0E14B781A4B5}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="55.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="90.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="90.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1382,7 +1617,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1392,7 +1627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44298</v>
       </c>
@@ -1411,7 +1646,7 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5">
@@ -1440,7 +1675,7 @@
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="5">
@@ -1469,7 +1704,7 @@
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="5">
@@ -1498,7 +1733,7 @@
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5">
@@ -1527,7 +1762,7 @@
       <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5">
@@ -1556,7 +1791,7 @@
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="5">
@@ -1585,7 +1820,7 @@
       <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="5">
@@ -1614,7 +1849,7 @@
       <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="5">
@@ -1643,7 +1878,7 @@
       <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="5">
@@ -1672,7 +1907,7 @@
       <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="5">
@@ -1701,7 +1936,7 @@
       <c r="F12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="5">
@@ -1730,7 +1965,7 @@
       <c r="F13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="5">
@@ -1759,7 +1994,7 @@
       <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="5">
@@ -1788,7 +2023,7 @@
       <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5">
@@ -1817,7 +2052,7 @@
       <c r="F16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="5">
@@ -1846,7 +2081,7 @@
       <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="5">
@@ -1875,7 +2110,7 @@
       <c r="F18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="14" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="5">
@@ -1904,7 +2139,7 @@
       <c r="F19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="5">
@@ -1933,7 +2168,7 @@
       <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="5">
@@ -1962,7 +2197,7 @@
       <c r="F21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="5">
@@ -1991,7 +2226,7 @@
       <c r="F22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="5">
@@ -2020,7 +2255,7 @@
       <c r="F23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="5">
@@ -2049,7 +2284,7 @@
       <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="5">
@@ -2078,7 +2313,7 @@
       <c r="F25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="5">
@@ -2107,7 +2342,7 @@
       <c r="F26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H26" s="5">
@@ -2136,7 +2371,7 @@
       <c r="F27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H27" s="5">
@@ -2165,7 +2400,7 @@
       <c r="F28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="5">
@@ -2194,7 +2429,7 @@
       <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H29" s="5">
@@ -2223,7 +2458,7 @@
       <c r="F30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="5">
@@ -2252,7 +2487,7 @@
       <c r="F31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="13" t="s">
         <v>67</v>
       </c>
       <c r="H31" s="5">
@@ -2281,7 +2516,7 @@
       <c r="F32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H32" s="5">
@@ -2310,7 +2545,7 @@
       <c r="F33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="5">
@@ -2339,7 +2574,7 @@
       <c r="F34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="14" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="5">
@@ -2368,7 +2603,7 @@
       <c r="F35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="5">
@@ -2397,7 +2632,7 @@
       <c r="F36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="14" t="s">
         <v>72</v>
       </c>
       <c r="H36" s="5">
@@ -2426,7 +2661,7 @@
       <c r="F37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H37" s="5">
@@ -2455,7 +2690,7 @@
       <c r="F38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="5">
@@ -2484,7 +2719,7 @@
       <c r="F39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H39" s="5">
@@ -2513,7 +2748,7 @@
       <c r="F40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="14" t="s">
         <v>75</v>
       </c>
       <c r="H40" s="5">
@@ -2542,7 +2777,7 @@
       <c r="F41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H41" s="5">
@@ -2571,7 +2806,7 @@
       <c r="F42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="14" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="5">
@@ -2600,7 +2835,7 @@
       <c r="F43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="5">
@@ -2629,7 +2864,7 @@
       <c r="F44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="14" t="s">
         <v>76</v>
       </c>
       <c r="H44" s="5">
@@ -2658,7 +2893,7 @@
       <c r="F45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="13" t="s">
         <v>77</v>
       </c>
       <c r="H45" s="5">
@@ -2687,7 +2922,7 @@
       <c r="F46" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="14" t="s">
         <v>79</v>
       </c>
       <c r="H46" s="5">
@@ -2716,7 +2951,7 @@
       <c r="F47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H47" s="5">
@@ -2745,7 +2980,7 @@
       <c r="F48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="14" t="s">
         <v>75</v>
       </c>
       <c r="H48" s="5">
@@ -2774,7 +3009,7 @@
       <c r="F49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H49" s="5">
@@ -2803,7 +3038,7 @@
       <c r="F50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H50" s="5">
@@ -2832,7 +3067,7 @@
       <c r="F51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H51" s="5">
@@ -2861,7 +3096,7 @@
       <c r="F52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H52" s="5">
@@ -2890,7 +3125,7 @@
       <c r="F53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H53" s="5">
@@ -2919,7 +3154,7 @@
       <c r="F54" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H54" s="5">
@@ -2948,7 +3183,7 @@
       <c r="F55" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H55" s="5">
@@ -2977,7 +3212,7 @@
       <c r="F56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H56" s="5">
@@ -3006,7 +3241,7 @@
       <c r="F57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H57" s="5">
@@ -3035,7 +3270,7 @@
       <c r="F58" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H58" s="5">
@@ -3064,7 +3299,7 @@
       <c r="F59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="13" t="s">
         <v>89</v>
       </c>
       <c r="H59" s="5">
@@ -3091,7 +3326,7 @@
       <c r="F60" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="13" t="s">
         <v>90</v>
       </c>
       <c r="H60" s="5">
@@ -3118,7 +3353,7 @@
       <c r="F61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H61" s="5">
@@ -3145,7 +3380,7 @@
       <c r="F62" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="13" t="s">
         <v>93</v>
       </c>
       <c r="H62" s="5">
@@ -3172,7 +3407,7 @@
       <c r="F63" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="13" t="s">
         <v>94</v>
       </c>
       <c r="H63" s="5">
@@ -3199,7 +3434,7 @@
       <c r="F64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H64" s="5">
@@ -3226,7 +3461,7 @@
       <c r="F65" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H65" s="5">
@@ -3253,7 +3488,7 @@
       <c r="F66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="13" t="s">
         <v>95</v>
       </c>
       <c r="H66" s="5">
@@ -3280,7 +3515,7 @@
       <c r="F67" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="13" t="s">
         <v>96</v>
       </c>
       <c r="H67" s="5">
@@ -3307,7 +3542,7 @@
       <c r="F68" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="13" t="s">
         <v>97</v>
       </c>
       <c r="H68" s="5">
@@ -3336,7 +3571,7 @@
       <c r="F69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="13" t="s">
         <v>98</v>
       </c>
       <c r="H69" s="5">
@@ -3365,7 +3600,7 @@
       <c r="F70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="14" t="s">
         <v>100</v>
       </c>
       <c r="H70" s="5">
@@ -3394,7 +3629,7 @@
       <c r="F71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H71" s="5">
@@ -3423,7 +3658,7 @@
       <c r="F72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="14" t="s">
         <v>102</v>
       </c>
       <c r="H72" s="5">
@@ -3452,7 +3687,7 @@
       <c r="F73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="14" t="s">
         <v>103</v>
       </c>
       <c r="H73" s="5">
@@ -3481,7 +3716,7 @@
       <c r="F74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="14" t="s">
         <v>104</v>
       </c>
       <c r="H74" s="5">
@@ -3508,7 +3743,7 @@
       <c r="F75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H75" s="5">
@@ -3537,7 +3772,7 @@
       <c r="F76" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H76" s="5">
@@ -3566,7 +3801,7 @@
       <c r="F77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H77" s="5">
@@ -3595,7 +3830,7 @@
       <c r="F78" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H78" s="5">
@@ -3624,7 +3859,7 @@
       <c r="F79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="14" t="s">
         <v>109</v>
       </c>
       <c r="H79" s="5">
@@ -3653,7 +3888,7 @@
       <c r="F80" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="13" t="s">
         <v>67</v>
       </c>
       <c r="H80" s="5">
@@ -3682,7 +3917,7 @@
       <c r="F81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="12" t="s">
         <v>47</v>
       </c>
       <c r="H81" s="5">
@@ -3711,7 +3946,7 @@
       <c r="F82" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="13" t="s">
         <v>113</v>
       </c>
       <c r="H82" s="5">
@@ -3740,7 +3975,7 @@
       <c r="F83" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="13" t="s">
         <v>115</v>
       </c>
       <c r="H83" s="5">
@@ -3767,7 +4002,7 @@
       <c r="F84" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="15" t="s">
         <v>117</v>
       </c>
       <c r="H84" s="5">
@@ -3794,7 +4029,7 @@
       <c r="F85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H85" s="5">
@@ -3821,7 +4056,7 @@
       <c r="F86" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H86" s="5">
@@ -3848,7 +4083,7 @@
       <c r="F87" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="13" t="s">
         <v>67</v>
       </c>
       <c r="H87" s="5">
@@ -3877,7 +4112,7 @@
       <c r="F88" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="14" t="s">
         <v>120</v>
       </c>
       <c r="H88" s="5">
@@ -3906,7 +4141,7 @@
       <c r="F89" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="13" t="s">
         <v>122</v>
       </c>
       <c r="H89" s="5">
@@ -3935,7 +4170,7 @@
       <c r="F90" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="14" t="s">
         <v>77</v>
       </c>
       <c r="H90" s="5">
@@ -3964,7 +4199,7 @@
       <c r="F91" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="14" t="s">
         <v>88</v>
       </c>
       <c r="H91" s="5">
@@ -3993,7 +4228,7 @@
       <c r="F92" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H92" s="5">
@@ -4022,7 +4257,7 @@
       <c r="F93" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="14" t="s">
         <v>113</v>
       </c>
       <c r="H93" s="5">
@@ -4051,7 +4286,7 @@
       <c r="F94" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="14" t="s">
         <v>124</v>
       </c>
       <c r="H94" s="5">
@@ -4080,7 +4315,7 @@
       <c r="F95" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H95" s="5">
@@ -4109,7 +4344,7 @@
       <c r="F96" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H96" s="5">
@@ -4138,7 +4373,7 @@
       <c r="F97" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="5">
@@ -4167,7 +4402,7 @@
       <c r="F98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H98" s="5">
@@ -4196,7 +4431,7 @@
       <c r="F99" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H99" s="5">
@@ -4225,7 +4460,7 @@
       <c r="F100" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="13" t="s">
         <v>128</v>
       </c>
       <c r="H100" s="5">
@@ -4254,7 +4489,7 @@
       <c r="F101" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="14" t="s">
         <v>76</v>
       </c>
       <c r="H101" s="5">
@@ -4283,7 +4518,7 @@
       <c r="F102" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H102" s="5">
@@ -4312,7 +4547,7 @@
       <c r="F103" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="14" t="s">
         <v>130</v>
       </c>
       <c r="H103" s="5">
@@ -4341,7 +4576,7 @@
       <c r="F104" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="14" t="s">
         <v>131</v>
       </c>
       <c r="H104" s="5">
@@ -4370,7 +4605,7 @@
       <c r="F105" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H105" s="5">
@@ -4399,7 +4634,7 @@
       <c r="F106" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H106" s="5">
@@ -4428,7 +4663,7 @@
       <c r="F107" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="14" t="s">
         <v>75</v>
       </c>
       <c r="H107" s="5">
@@ -4457,7 +4692,7 @@
       <c r="F108" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H108" s="5">
@@ -4486,7 +4721,7 @@
       <c r="F109" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="14" t="s">
         <v>133</v>
       </c>
       <c r="H109" s="5">
@@ -4515,7 +4750,7 @@
       <c r="F110" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H110" s="5">
@@ -4544,7 +4779,7 @@
       <c r="F111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="14" t="s">
         <v>136</v>
       </c>
       <c r="H111" s="5">
@@ -4573,7 +4808,7 @@
       <c r="F112" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H112" s="5">
@@ -4602,7 +4837,7 @@
       <c r="F113" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="14" t="s">
         <v>137</v>
       </c>
       <c r="H113" s="5">
@@ -4631,7 +4866,7 @@
       <c r="F114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="14" t="s">
         <v>73</v>
       </c>
       <c r="H114" s="5">
@@ -4660,7 +4895,7 @@
       <c r="F115" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H115" s="5">
@@ -4689,7 +4924,7 @@
       <c r="F116" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="14" t="s">
         <v>143</v>
       </c>
       <c r="H116" s="5">
@@ -4718,7 +4953,7 @@
       <c r="F117" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="13" t="s">
         <v>144</v>
       </c>
       <c r="H117" s="5">
@@ -4747,7 +4982,7 @@
       <c r="F118" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="13" t="s">
         <v>146</v>
       </c>
       <c r="H118" s="5">
@@ -4776,7 +5011,7 @@
       <c r="F119" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G119" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H119" s="5">
@@ -4805,7 +5040,7 @@
       <c r="F120" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H120" s="5">
@@ -4834,7 +5069,7 @@
       <c r="F121" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="14" t="s">
         <v>149</v>
       </c>
       <c r="H121" s="5">
@@ -4863,7 +5098,7 @@
       <c r="F122" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="14" t="s">
         <v>150</v>
       </c>
       <c r="H122" s="5">
@@ -4892,7 +5127,7 @@
       <c r="F123" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="14" t="s">
         <v>136</v>
       </c>
       <c r="H123" s="5">
@@ -4921,7 +5156,7 @@
       <c r="F124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H124" s="5">
@@ -4950,7 +5185,7 @@
       <c r="F125" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H125" s="5">
@@ -4979,7 +5214,7 @@
       <c r="F126" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G126" s="14" t="s">
         <v>137</v>
       </c>
       <c r="H126" s="5">
@@ -5008,7 +5243,7 @@
       <c r="F127" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G127" s="8" t="s">
+      <c r="G127" s="14" t="s">
         <v>73</v>
       </c>
       <c r="H127" s="5">
@@ -5037,7 +5272,7 @@
       <c r="F128" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="14" t="s">
         <v>103</v>
       </c>
       <c r="H128" s="5">
@@ -5066,7 +5301,7 @@
       <c r="F129" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G129" s="13" t="s">
         <v>152</v>
       </c>
       <c r="H129" s="5">
@@ -5095,7 +5330,7 @@
       <c r="F130" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G130" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H130" s="5">
@@ -5124,7 +5359,7 @@
       <c r="F131" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="13" t="s">
         <v>154</v>
       </c>
       <c r="H131" s="5">
@@ -5132,6 +5367,963 @@
       </c>
       <c r="I131" s="3" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H132" s="5">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H133" s="5">
+        <v>1</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H134" s="5">
+        <v>1</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H135" s="5">
+        <v>100</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="5">
+        <v>736</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="H136" s="5">
+        <v>64</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="5">
+        <v>750</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137" s="5">
+        <v>128</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="5">
+        <v>750</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" s="5">
+        <v>80</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="5">
+        <v>750</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H139" s="5">
+        <v>96</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="5">
+        <v>750</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" s="5">
+        <v>32</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="5">
+        <v>750</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="5">
+        <v>48</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="5">
+        <v>750</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="H142" s="5">
+        <v>32</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="5">
+        <v>619</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H143" s="5">
+        <v>6</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="5">
+        <v>619</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H144" s="5">
+        <v>42</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="5">
+        <v>638</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H145" s="5">
+        <v>9</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" s="5">
+        <v>638</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="H146" s="5">
+        <v>18</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="5">
+        <v>638</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H147" s="5">
+        <v>9</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="5">
+        <v>638</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H148" s="5">
+        <v>18</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" s="5">
+        <v>638</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H149" s="5">
+        <v>18</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150" s="5">
+        <v>748</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H150" s="5">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H151" s="5">
+        <v>16</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H152" s="5">
+        <v>20</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H153" s="5">
+        <v>100</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H154" s="5">
+        <v>148</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="5">
+        <v>534</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H155" s="5">
+        <v>160</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H156" s="5">
+        <v>16</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H157" s="5">
+        <v>32</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="5">
+        <v>8100</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H158" s="5">
+        <v>16</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="5">
+        <v>8100</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H159" s="5">
+        <v>16</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H160" s="5">
+        <v>32</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H161" s="5">
+        <v>16</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="5">
+        <v>534</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H162" s="5">
+        <v>2</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="5">
+        <v>749</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H163" s="5">
+        <v>96</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E164" s="5">
+        <v>741</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H164" s="5">
+        <v>1</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5142,2425 +6334,4381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1406447-A5B8-412C-AE55-A178EB513830}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="17">
         <v>399</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="17">
+        <v>400</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="17">
+        <v>142</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="17">
+        <v>398</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="17">
+        <v>297</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="17">
+        <v>350</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="17">
+        <v>700</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="17">
+        <v>240</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="17">
+        <v>74</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="17">
+        <v>57</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="17">
+        <v>250</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="17">
+        <v>278</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="17">
+        <v>375</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="17">
+        <v>678</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="17">
+        <v>28</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="17">
+        <v>97</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="17">
+        <v>205</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="17">
+        <v>6</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="17">
+        <v>241</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="17">
+        <v>200</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="17">
+        <v>798</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="17">
+        <v>420</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="17">
+        <v>187</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="17">
+        <v>348</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="17">
+        <v>18</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="17">
+        <v>662</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1022</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="17">
+        <v>239</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="17">
+        <v>541</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="17">
+        <v>921</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="17">
+        <v>320</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="17">
+        <v>151</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="17">
+        <v>400</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" s="17">
+        <v>310</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="17">
+        <v>753</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="17">
+        <v>23</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="17">
+        <v>248</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="17">
+        <v>248</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="17">
+        <v>152</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="17">
+        <v>187</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="17">
+        <v>177</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="17">
+        <v>73</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="17">
+        <v>136</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="17">
+        <v>395</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="17">
+        <v>58</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="17">
+        <v>790</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="17">
+        <v>194</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="17">
+        <v>300</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="17">
+        <v>388</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="17">
+        <v>271</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D60" s="17">
+        <v>244</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="20">
+        <v>350</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="20">
+        <v>406</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="20">
+        <v>400</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="20">
+        <v>196</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="20">
+        <v>41</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="20">
+        <v>328</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="20">
+        <v>402</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="20">
+        <v>400</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="17">
+        <v>462</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="17">
+        <v>636</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="17">
+        <v>200</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="17">
+        <v>200</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="17">
+        <v>521</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="17">
+        <v>151</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="17">
+        <v>350</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="17">
+        <v>60</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="17">
+        <v>20</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="17">
+        <v>20</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="17">
+        <v>60</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="17">
+        <v>1380</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="17">
+        <v>275</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="17">
+        <v>5</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="17">
+        <v>374</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" s="17">
+        <v>55</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="17">
+        <v>334</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="17">
+        <v>91</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="17">
+        <v>10</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="17">
+        <v>206</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" s="17">
+        <v>16</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="17">
+        <v>2</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="17">
+        <v>4</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="17">
+        <v>60</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="17">
+        <v>107</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="17">
+        <v>80</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="17">
+        <v>256</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="17">
+        <v>44</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="17">
+        <v>37</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D99" s="17">
+        <v>3</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="17">
+        <v>0</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="17">
+        <v>40</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="17">
+        <v>240</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="17">
+        <v>0</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="17">
+        <v>246</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="17">
+        <v>20</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="17">
+        <v>22</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="17">
+        <v>64</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="21">
+        <v>219</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="17">
+        <v>0</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="17">
+        <v>0</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" s="17">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" s="17">
+        <v>0</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D113" s="17">
+        <v>0</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="17">
+        <v>0</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="17">
+        <v>300</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="17">
+        <v>58</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="17">
+        <v>150</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" s="17">
+        <v>0</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D119" s="17">
+        <v>0</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D120" s="17">
+        <v>34</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D121" s="17">
+        <v>87</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D122" s="17">
+        <v>12</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123" s="17">
+        <v>111</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D124" s="17">
+        <v>0</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D125" s="17">
+        <v>25</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D126" s="17">
+        <v>197</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="17">
+        <v>551</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" s="17">
+        <v>113</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" s="17">
+        <v>86</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" s="17">
+        <v>38</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D131" s="17">
+        <v>97</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" s="17">
+        <v>73</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D133" s="17">
+        <v>90</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D134" s="17">
+        <v>90</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="17">
+        <v>267</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D136" s="17">
+        <v>294</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B137" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="6">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C137" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D137" s="17">
+        <v>88</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C138" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138" s="17">
+        <v>1</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D139" s="17">
+        <v>217</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D140" s="17">
+        <v>0</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D141" s="17">
+        <v>179</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D142" s="17">
+        <v>68</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="17">
+        <v>1028</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="17">
+        <v>439</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" s="17">
+        <v>160</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146" s="17">
+        <v>46</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D147" s="17">
+        <v>31</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D148" s="17">
+        <v>630</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D149" s="17">
+        <v>180</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D150" s="17">
+        <v>58</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D151" s="17">
+        <v>147</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D152" s="17">
+        <v>0</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D153" s="17">
+        <v>40</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D154" s="17">
+        <v>196</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D155" s="17">
+        <v>190</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D156" s="17">
+        <v>42</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D157" s="17">
+        <v>3</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D158" s="17">
+        <v>24</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D159" s="17">
+        <v>25</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D160" s="17">
+        <v>2</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="17">
+        <v>41</v>
+      </c>
+      <c r="E161" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D162" s="17">
+        <v>0</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D163" s="17">
+        <v>19</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D164" s="17">
+        <v>1</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D165" s="17">
+        <v>61</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D166" s="17">
+        <v>2</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D167" s="17">
+        <v>40</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D168" s="17">
+        <v>2</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D169" s="17">
+        <v>161</v>
+      </c>
+      <c r="E169" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D170" s="17">
+        <v>66</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D171" s="17">
+        <v>0</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" s="17">
+        <v>25</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173" s="17">
+        <v>354</v>
+      </c>
+      <c r="E173" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D174" s="17">
+        <v>272</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175" s="17"/>
+      <c r="C175" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D175" s="17">
+        <v>6</v>
+      </c>
+      <c r="E175" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B176" s="17"/>
+      <c r="C176" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" s="17">
+        <v>10</v>
+      </c>
+      <c r="E176" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B177" s="17"/>
+      <c r="C177" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D177" s="17">
+        <v>2</v>
+      </c>
+      <c r="E177" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B178" s="17"/>
+      <c r="C178" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D178" s="17">
+        <v>18</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D179" s="17">
+        <v>12</v>
+      </c>
+      <c r="E179" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B180" s="17"/>
+      <c r="C180" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="17">
+        <v>9</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B181" s="17"/>
+      <c r="C181" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D181" s="17">
+        <v>18</v>
+      </c>
+      <c r="E181" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B182" s="17"/>
+      <c r="C182" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D182" s="17">
+        <v>10</v>
+      </c>
+      <c r="E182" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B183" s="17"/>
+      <c r="C183" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D183" s="17">
+        <v>1</v>
+      </c>
+      <c r="E183" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B184" s="17"/>
+      <c r="C184" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D184" s="17">
+        <v>63</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B185" s="17"/>
+      <c r="C185" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D185" s="17">
+        <v>12</v>
+      </c>
+      <c r="E185" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B186" s="17"/>
+      <c r="C186" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D186" s="17">
+        <v>5</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B187" s="17"/>
+      <c r="C187" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D187" s="17">
+        <v>6</v>
+      </c>
+      <c r="E187" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B188" s="17"/>
+      <c r="C188" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D188" s="17">
+        <v>16</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B189" s="17"/>
+      <c r="C189" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D189" s="17">
+        <v>6</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B190" s="17"/>
+      <c r="C190" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D190" s="17">
+        <v>2</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B191" s="17"/>
+      <c r="C191" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D191" s="17">
+        <v>1</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B192" s="17"/>
+      <c r="C192" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D192" s="17">
+        <v>296</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B193" s="17"/>
+      <c r="C193" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D193" s="17">
+        <v>4</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B194" s="17"/>
+      <c r="C194" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D194" s="17">
+        <v>4</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B195" s="17"/>
+      <c r="C195" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D195" s="17">
+        <v>1</v>
+      </c>
+      <c r="E195" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B196" s="17"/>
+      <c r="C196" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D196" s="17">
+        <v>9</v>
+      </c>
+      <c r="E196" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B197" s="17"/>
+      <c r="C197" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D197" s="17">
+        <v>6</v>
+      </c>
+      <c r="E197" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B198" s="17"/>
+      <c r="C198" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D198" s="17">
+        <v>16</v>
+      </c>
+      <c r="E198" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B199" s="17"/>
+      <c r="C199" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="17">
+        <v>3</v>
+      </c>
+      <c r="E199" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B200" s="17"/>
+      <c r="C200" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" s="17">
+        <v>20</v>
+      </c>
+      <c r="E200" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201" s="17"/>
+      <c r="C201" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D201" s="17">
+        <v>1</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B202" s="17"/>
+      <c r="C202" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D202" s="17">
+        <v>1</v>
+      </c>
+      <c r="E202" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B203" s="17"/>
+      <c r="C203" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D203" s="17">
+        <v>14</v>
+      </c>
+      <c r="E203" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B204" s="17"/>
+      <c r="C204" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="6">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D204" s="17">
+        <v>2</v>
+      </c>
+      <c r="E204" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B205" s="17"/>
+      <c r="C205" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D205" s="17">
+        <v>1</v>
+      </c>
+      <c r="E205" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B206" s="17"/>
+      <c r="C206" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D206" s="17">
+        <v>1</v>
+      </c>
+      <c r="E206" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B207" s="17"/>
+      <c r="C207" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D207" s="17">
+        <v>1</v>
+      </c>
+      <c r="E207" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B208" s="17"/>
+      <c r="C208" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D208" s="17">
+        <v>1</v>
+      </c>
+      <c r="E208" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B209" s="17"/>
+      <c r="C209" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D209" s="17">
+        <v>3</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B210" s="17"/>
+      <c r="C210" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D210" s="17">
+        <v>4</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B211" s="17"/>
+      <c r="C211" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D211" s="17">
+        <v>1</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B212" s="17"/>
+      <c r="C212" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D212" s="17">
+        <v>2</v>
+      </c>
+      <c r="E212" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B213" s="17"/>
+      <c r="C213" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D213" s="17">
+        <v>3</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B214" s="17"/>
+      <c r="C214" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D214" s="17">
+        <v>1</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B215" s="17"/>
+      <c r="C215" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D215" s="17">
+        <v>2</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B216" s="17"/>
+      <c r="C216" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D216" s="17">
+        <v>1</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B217" s="17"/>
+      <c r="C217" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D217" s="17">
+        <v>10</v>
+      </c>
+      <c r="E217" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B218" s="17"/>
+      <c r="C218" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D218" s="17">
+        <v>1</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B219" s="17"/>
+      <c r="C219" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219" s="17">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="6">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E219" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B220" s="17"/>
+      <c r="C220" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D220" s="17">
+        <v>1</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B221" s="17"/>
+      <c r="C221" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D221" s="17">
+        <v>1</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B222" s="17"/>
+      <c r="C222" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D222" s="17">
+        <v>2</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B223" s="17"/>
+      <c r="C223" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D223" s="17">
+        <v>1</v>
+      </c>
+      <c r="E223" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B224" s="17"/>
+      <c r="C224" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D224" s="17">
+        <v>1</v>
+      </c>
+      <c r="E224" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B225" s="17"/>
+      <c r="C225" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D225" s="17">
+        <v>9</v>
+      </c>
+      <c r="E225" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B226" s="17"/>
+      <c r="C226" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D226" s="17">
+        <v>48</v>
+      </c>
+      <c r="E226" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B227" s="17"/>
+      <c r="C227" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D227" s="17">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="E227" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B228" s="17"/>
+      <c r="C228" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D228" s="17">
+        <v>1</v>
+      </c>
+      <c r="E228" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B229" s="17"/>
+      <c r="C229" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D229" s="17">
+        <v>1</v>
+      </c>
+      <c r="E229" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B230" s="17"/>
+      <c r="C230" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D230" s="17">
+        <v>1</v>
+      </c>
+      <c r="E230" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B231" s="17"/>
+      <c r="C231" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D231" s="17">
+        <v>15</v>
+      </c>
+      <c r="E231" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B232" s="17"/>
+      <c r="C232" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D232" s="17">
+        <v>3</v>
+      </c>
+      <c r="E232" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B233" s="17"/>
+      <c r="C233" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D233" s="17">
+        <v>1</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B234" s="17"/>
+      <c r="C234" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D234" s="17">
+        <v>2</v>
+      </c>
+      <c r="E234" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B235" s="17"/>
+      <c r="C235" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D235" s="17">
+        <v>2</v>
+      </c>
+      <c r="E235" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B236" s="17"/>
+      <c r="C236" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D236" s="17">
+        <v>1</v>
+      </c>
+      <c r="E236" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B237" s="17"/>
+      <c r="C237" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D237" s="17">
+        <v>2</v>
+      </c>
+      <c r="E237" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B238" s="17"/>
+      <c r="C238" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D238" s="17">
+        <v>1</v>
+      </c>
+      <c r="E238" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B239" s="17"/>
+      <c r="C239" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D239" s="17">
+        <v>1</v>
+      </c>
+      <c r="E239" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B240" s="17"/>
+      <c r="C240" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D240" s="17">
+        <v>2</v>
+      </c>
+      <c r="E240" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B241" s="17"/>
+      <c r="C241" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D241" s="17">
+        <v>1</v>
+      </c>
+      <c r="E241" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B242" s="17"/>
+      <c r="C242" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D242" s="17">
+        <v>1</v>
+      </c>
+      <c r="E242" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B243" s="17"/>
+      <c r="C243" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D243" s="17">
+        <v>1</v>
+      </c>
+      <c r="E243" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B244" s="17"/>
+      <c r="C244" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D244" s="17">
+        <v>1</v>
+      </c>
+      <c r="E244" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B245" s="17"/>
+      <c r="C245" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D245" s="17">
+        <v>2</v>
+      </c>
+      <c r="E245" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B246" s="17"/>
+      <c r="C246" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D246" s="17">
+        <v>1</v>
+      </c>
+      <c r="E246" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B247" s="17"/>
+      <c r="C247" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D247" s="17">
+        <v>1</v>
+      </c>
+      <c r="E247" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B248" s="17"/>
+      <c r="C248" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D248" s="17">
+        <v>2</v>
+      </c>
+      <c r="E248" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B249" s="17"/>
+      <c r="C249" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D249" s="17">
+        <v>2</v>
+      </c>
+      <c r="E249" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B250" s="17"/>
+      <c r="C250" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D250" s="17">
+        <v>9</v>
+      </c>
+      <c r="E250" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B251" s="17"/>
+      <c r="C251" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D251" s="17">
+        <v>10</v>
+      </c>
+      <c r="E251" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B252" s="17"/>
+      <c r="C252" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D252" s="17">
+        <v>35</v>
+      </c>
+      <c r="E252" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B253" s="17"/>
+      <c r="C253" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D253" s="17">
+        <v>2</v>
+      </c>
+      <c r="E253" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B254" s="17"/>
+      <c r="C254" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D254" s="17">
+        <v>21</v>
+      </c>
+      <c r="E254" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B255" s="17"/>
+      <c r="C255" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D255" s="17">
+        <v>3</v>
+      </c>
+      <c r="E255" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B256" s="17"/>
+      <c r="C256" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D256" s="17">
+        <v>21</v>
+      </c>
+      <c r="E256" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B257" s="17"/>
+      <c r="C257" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D257" s="17">
+        <v>25</v>
+      </c>
+      <c r="E257" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B258" s="17"/>
+      <c r="C258" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D258" s="17">
+        <v>6</v>
+      </c>
+      <c r="E258" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B259" s="17"/>
+      <c r="C259" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D259" s="17">
+        <v>2</v>
+      </c>
+      <c r="E259" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B260" s="17"/>
+      <c r="C260" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D260" s="17">
+        <v>3</v>
+      </c>
+      <c r="E260" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B261" s="17"/>
+      <c r="C261" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D261" s="17">
+        <v>6</v>
+      </c>
+      <c r="E261" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B262" s="17"/>
+      <c r="C262" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D262" s="17">
+        <v>1</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B263" s="17"/>
+      <c r="C263" s="18" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="6">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>274</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="6">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="6">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="6">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="6">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="6">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="6">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="6">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="6">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="6">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>274</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="6">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>274</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="6">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="6">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="6">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="6">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="6">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="6">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="6">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>274</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D45" s="6">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="6">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="6">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>274</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>274</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>274</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>274</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="6">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="6">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="6">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="6">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>274</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="6">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>274</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="6">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>274</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>274</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="6">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>274</v>
-      </c>
-      <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>274</v>
-      </c>
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>274</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>274</v>
-      </c>
-      <c r="B67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" s="6">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>274</v>
-      </c>
-      <c r="B68" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>274</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="6">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>274</v>
-      </c>
-      <c r="B71" t="s">
-        <v>281</v>
-      </c>
-      <c r="C71" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>274</v>
-      </c>
-      <c r="B72" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="6">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>275</v>
-      </c>
-      <c r="B74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>275</v>
-      </c>
-      <c r="B76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>275</v>
-      </c>
-      <c r="B77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B78" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" t="s">
-        <v>207</v>
-      </c>
-      <c r="D78" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>275</v>
-      </c>
-      <c r="B80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" t="s">
-        <v>209</v>
-      </c>
-      <c r="D80" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>275</v>
-      </c>
-      <c r="B81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>275</v>
-      </c>
-      <c r="B82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" t="s">
-        <v>210</v>
-      </c>
-      <c r="D82" s="6">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" t="s">
-        <v>211</v>
-      </c>
-      <c r="D83" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>275</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="6">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>275</v>
-      </c>
-      <c r="B85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D86" s="6">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>275</v>
-      </c>
-      <c r="B87" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87" t="s">
-        <v>213</v>
-      </c>
-      <c r="D87" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>275</v>
-      </c>
-      <c r="B88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>275</v>
-      </c>
-      <c r="B90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>275</v>
-      </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="6">
+      <c r="D263" s="17">
+        <v>3</v>
+      </c>
+      <c r="E263" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B264" s="17"/>
+      <c r="C264" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>275</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>275</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>275</v>
-      </c>
-      <c r="B94" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>275</v>
-      </c>
-      <c r="B95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" t="s">
-        <v>217</v>
-      </c>
-      <c r="D95" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>275</v>
-      </c>
-      <c r="B96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" t="s">
-        <v>218</v>
-      </c>
-      <c r="D96" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>275</v>
-      </c>
-      <c r="B97" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>275</v>
-      </c>
-      <c r="B98" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B99" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="6">
+      <c r="E264" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B265" s="17"/>
+      <c r="C265" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D265" s="17">
+        <v>2</v>
+      </c>
+      <c r="E265" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B266" s="17"/>
+      <c r="C266" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D266" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>275</v>
-      </c>
-      <c r="B100" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" t="s">
-        <v>220</v>
-      </c>
-      <c r="D100" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>275</v>
-      </c>
-      <c r="B101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>275</v>
-      </c>
-      <c r="B102" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>275</v>
-      </c>
-      <c r="B103" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" t="s">
-        <v>222</v>
-      </c>
-      <c r="D103" s="6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>275</v>
-      </c>
-      <c r="B104" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" t="s">
-        <v>223</v>
-      </c>
-      <c r="D104" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>275</v>
-      </c>
-      <c r="B105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105" t="s">
-        <v>224</v>
-      </c>
-      <c r="D105" s="6">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>275</v>
-      </c>
-      <c r="B106" t="s">
-        <v>39</v>
-      </c>
-      <c r="C106" t="s">
-        <v>225</v>
-      </c>
-      <c r="D106" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>275</v>
-      </c>
-      <c r="B107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" t="s">
-        <v>226</v>
-      </c>
-      <c r="D107" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>275</v>
-      </c>
-      <c r="B108" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" t="s">
-        <v>227</v>
-      </c>
-      <c r="D108" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>275</v>
-      </c>
-      <c r="B109" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" s="6">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>275</v>
-      </c>
-      <c r="B110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C110" t="s">
-        <v>229</v>
-      </c>
-      <c r="D110" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>276</v>
-      </c>
-      <c r="B111" t="s">
-        <v>282</v>
-      </c>
-      <c r="C111" t="s">
-        <v>230</v>
-      </c>
-      <c r="D111" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>276</v>
-      </c>
-      <c r="B112" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>276</v>
-      </c>
-      <c r="B113" t="s">
-        <v>282</v>
-      </c>
-      <c r="C113" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>276</v>
-      </c>
-      <c r="B114" t="s">
-        <v>282</v>
-      </c>
-      <c r="C114" t="s">
-        <v>233</v>
-      </c>
-      <c r="D114" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>276</v>
-      </c>
-      <c r="B115" t="s">
-        <v>282</v>
-      </c>
-      <c r="C115" t="s">
-        <v>234</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" t="s">
-        <v>121</v>
-      </c>
-      <c r="C116" t="s">
-        <v>122</v>
-      </c>
-      <c r="D116" s="6">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>276</v>
-      </c>
-      <c r="B117" t="s">
-        <v>121</v>
-      </c>
-      <c r="C117" t="s">
-        <v>235</v>
-      </c>
-      <c r="D117" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>276</v>
-      </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>276</v>
-      </c>
-      <c r="B119" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" t="s">
-        <v>237</v>
-      </c>
-      <c r="D119" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>276</v>
-      </c>
-      <c r="B120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" t="s">
-        <v>238</v>
-      </c>
-      <c r="D120" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>276</v>
-      </c>
-      <c r="B121" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" t="s">
-        <v>239</v>
-      </c>
-      <c r="D121" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>276</v>
-      </c>
-      <c r="B122" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D122" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>276</v>
-      </c>
-      <c r="B123" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" t="s">
-        <v>240</v>
-      </c>
-      <c r="D123" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>276</v>
-      </c>
-      <c r="B124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" t="s">
-        <v>241</v>
-      </c>
-      <c r="D124" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>276</v>
-      </c>
-      <c r="B125" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" t="s">
-        <v>242</v>
-      </c>
-      <c r="D125" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>276</v>
-      </c>
-      <c r="B126" t="s">
-        <v>35</v>
-      </c>
-      <c r="C126" t="s">
-        <v>243</v>
-      </c>
-      <c r="D126" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>276</v>
-      </c>
-      <c r="B127" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" t="s">
-        <v>244</v>
-      </c>
-      <c r="D127" s="6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>276</v>
-      </c>
-      <c r="B128" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" t="s">
-        <v>149</v>
-      </c>
-      <c r="D128" s="6">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>276</v>
-      </c>
-      <c r="B129" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" t="s">
-        <v>245</v>
-      </c>
-      <c r="D129" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>276</v>
-      </c>
-      <c r="B130" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" t="s">
-        <v>246</v>
-      </c>
-      <c r="D130" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B131" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" t="s">
-        <v>247</v>
-      </c>
-      <c r="D131" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>276</v>
-      </c>
-      <c r="B132" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" t="s">
-        <v>248</v>
-      </c>
-      <c r="D132" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>276</v>
-      </c>
-      <c r="B133" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" t="s">
-        <v>82</v>
-      </c>
-      <c r="D133" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>276</v>
-      </c>
-      <c r="B134" t="s">
-        <v>22</v>
-      </c>
-      <c r="C134" t="s">
-        <v>249</v>
-      </c>
-      <c r="D134" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>276</v>
-      </c>
-      <c r="B135" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" t="s">
-        <v>250</v>
-      </c>
-      <c r="D135" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>276</v>
-      </c>
-      <c r="B136" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="6">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>276</v>
-      </c>
-      <c r="B137" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" t="s">
-        <v>73</v>
-      </c>
-      <c r="D137" s="6">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>276</v>
-      </c>
-      <c r="B138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" t="s">
-        <v>251</v>
-      </c>
-      <c r="D138" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>252</v>
-      </c>
-      <c r="D139" s="6">
+      <c r="E266" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B267" s="17"/>
+      <c r="C267" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D267" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>71</v>
-      </c>
-      <c r="D140" s="6">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>276</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>253</v>
-      </c>
-      <c r="D141" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>276</v>
-      </c>
-      <c r="B142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>136</v>
-      </c>
-      <c r="D142" s="6">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>276</v>
-      </c>
-      <c r="B143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
-        <v>104</v>
-      </c>
-      <c r="D143" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>276</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="6">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>276</v>
-      </c>
-      <c r="B145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" s="6">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>276</v>
-      </c>
-      <c r="B146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
-        <v>108</v>
-      </c>
-      <c r="D146" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
-        <v>137</v>
-      </c>
-      <c r="D147" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>276</v>
-      </c>
-      <c r="B148" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" t="s">
-        <v>254</v>
-      </c>
-      <c r="D148" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>276</v>
-      </c>
-      <c r="B149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" t="s">
-        <v>255</v>
-      </c>
-      <c r="D149" s="6">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>276</v>
-      </c>
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s">
-        <v>256</v>
-      </c>
-      <c r="D150" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>276</v>
-      </c>
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" t="s">
-        <v>257</v>
-      </c>
-      <c r="D151" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>276</v>
-      </c>
-      <c r="B152" t="s">
-        <v>283</v>
-      </c>
-      <c r="C152" t="s">
-        <v>258</v>
-      </c>
-      <c r="D152" s="6">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>277</v>
-      </c>
-      <c r="B153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
-        <v>259</v>
-      </c>
-      <c r="D153" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>277</v>
-      </c>
-      <c r="B154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>260</v>
-      </c>
-      <c r="D154" s="6">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>277</v>
-      </c>
-      <c r="B155" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" t="s">
-        <v>261</v>
-      </c>
-      <c r="D155" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>277</v>
-      </c>
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" t="s">
-        <v>262</v>
-      </c>
-      <c r="D156" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>277</v>
-      </c>
-      <c r="B157" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" t="s">
-        <v>263</v>
-      </c>
-      <c r="D157" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>277</v>
-      </c>
-      <c r="B158" t="s">
-        <v>112</v>
-      </c>
-      <c r="C158" t="s">
-        <v>264</v>
-      </c>
-      <c r="D158" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>277</v>
-      </c>
-      <c r="B159" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" t="s">
-        <v>265</v>
-      </c>
-      <c r="D159" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>278</v>
-      </c>
-      <c r="B160" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" t="s">
-        <v>266</v>
-      </c>
-      <c r="D160" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>278</v>
-      </c>
-      <c r="B161" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" t="s">
-        <v>267</v>
-      </c>
-      <c r="D161" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>278</v>
-      </c>
-      <c r="B162" t="s">
-        <v>17</v>
-      </c>
-      <c r="C162" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>278</v>
-      </c>
-      <c r="B163" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" t="s">
-        <v>268</v>
-      </c>
-      <c r="D163" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" t="s">
-        <v>269</v>
-      </c>
-      <c r="D164" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>278</v>
-      </c>
-      <c r="B165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" t="s">
-        <v>270</v>
-      </c>
-      <c r="D165" s="6">
+      <c r="E267" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B268" s="17"/>
+      <c r="C268" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D268" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>278</v>
-      </c>
-      <c r="B166" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" t="s">
-        <v>90</v>
-      </c>
-      <c r="D166" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>278</v>
-      </c>
-      <c r="B167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" t="s">
-        <v>271</v>
-      </c>
-      <c r="D167" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>278</v>
-      </c>
-      <c r="B168" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" t="s">
-        <v>120</v>
-      </c>
-      <c r="D168" s="6">
+      <c r="E268" s="22" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>278</v>
-      </c>
-      <c r="B169" t="s">
-        <v>22</v>
-      </c>
-      <c r="C169" t="s">
-        <v>272</v>
-      </c>
-      <c r="D169" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>278</v>
-      </c>
-      <c r="B170" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" t="s">
-        <v>273</v>
-      </c>
-      <c r="D170" s="6">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>274</v>
-      </c>
-      <c r="B171" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" t="s">
-        <v>89</v>
-      </c>
-      <c r="D171" s="6">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>275</v>
-      </c>
-      <c r="B172" t="s">
-        <v>42</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D172" s="6">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
